--- a/data/trans_orig/P34F1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34F1-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48FF1387-3575-4DA4-A263-B3F8D52281DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4371801-FF55-43F3-B578-D49782D91624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{93DD6F57-2D5A-44A1-B818-B235CCFF9C34}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E48657AC-A34C-47F0-93EB-B5F0D1900D7C}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="744">
   <si>
     <t>Población según el número de días que caminó por lo menos 10 minutos seguidos a lo largo de los últimos 7 días en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -72,2188 +72,2203 @@
     <t>37,74%</t>
   </si>
   <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
   </si>
   <si>
     <t>34,62%</t>
   </si>
   <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
   </si>
   <si>
     <t>36,2%</t>
   </si>
   <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
   </si>
   <si>
     <t>7,11%</t>
   </si>
   <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días que caminó por lo menos 10 minutos seguidos a lo largo de los últimos 7 días en 2023 (Tasa respuesta: 98,92%)</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días que caminó por lo menos 10 minutos seguidos a lo largo de los últimos 7 días en 2023 (Tasa respuesta: 98,92%)</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
     <t>4,13%</t>
   </si>
   <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
   </si>
   <si>
     <t>19,62%</t>
   </si>
   <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
+    <t>17,99%</t>
   </si>
   <si>
     <t>20,53%</t>
   </si>
   <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
   </si>
   <si>
     <t>20,1%</t>
   </si>
   <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
   </si>
 </sst>
 </file>
@@ -2665,7 +2680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A37FB0-13A0-49B3-9FF1-17D1AC1E486D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C75445-C745-47FC-A521-EF470B73ECC0}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3077,10 +3092,10 @@
         <v>61</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,13 +3110,13 @@
         <v>1986</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3110,13 +3125,13 @@
         <v>1873</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -3125,13 +3140,13 @@
         <v>3858</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,10 +3161,10 @@
         <v>24940</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>73</v>
@@ -3286,7 +3301,7 @@
         <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3316,13 @@
         <v>24839</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -3316,13 +3331,13 @@
         <v>23547</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
@@ -3331,13 +3346,13 @@
         <v>48386</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3367,13 @@
         <v>57125</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H15" s="7">
         <v>53</v>
@@ -3367,13 +3382,13 @@
         <v>52394</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M15" s="7">
         <v>109</v>
@@ -3385,10 +3400,10 @@
         <v>61</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,7 +3424,7 @@
         <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -3418,13 +3433,13 @@
         <v>33258</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -3433,13 +3448,13 @@
         <v>57583</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3469,13 @@
         <v>24170</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -3469,13 +3484,13 @@
         <v>37950</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -3484,13 +3499,13 @@
         <v>62120</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3520,13 @@
         <v>28651</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -3520,13 +3535,13 @@
         <v>27656</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M18" s="7">
         <v>56</v>
@@ -3535,13 +3550,13 @@
         <v>56307</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3571,13 @@
         <v>9356</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -3571,13 +3586,13 @@
         <v>11778</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>21</v>
@@ -3586,13 +3601,13 @@
         <v>21134</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,13 +3622,13 @@
         <v>192725</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>180</v>
@@ -3622,13 +3637,13 @@
         <v>187893</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>365</v>
@@ -3637,13 +3652,13 @@
         <v>380618</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,7 +3714,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5">
         <v>7</v>
@@ -3711,13 +3726,13 @@
         <v>262499</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>208</v>
@@ -3726,13 +3741,13 @@
         <v>218368</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>450</v>
@@ -3741,13 +3756,13 @@
         <v>480867</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3777,13 @@
         <v>48985</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H23" s="7">
         <v>40</v>
@@ -3777,13 +3792,13 @@
         <v>42796</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>86</v>
@@ -3792,13 +3807,13 @@
         <v>91782</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3828,13 @@
         <v>129469</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>127</v>
@@ -3828,13 +3843,13 @@
         <v>134559</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>246</v>
@@ -3843,13 +3858,13 @@
         <v>264029</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3879,13 @@
         <v>35943</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -3879,13 +3894,13 @@
         <v>54592</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -3894,13 +3909,13 @@
         <v>90535</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,13 +3930,13 @@
         <v>68910</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>81</v>
@@ -3930,13 +3945,13 @@
         <v>86344</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>144</v>
@@ -3945,13 +3960,13 @@
         <v>155255</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,13 +3981,13 @@
         <v>74960</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H27" s="7">
         <v>70</v>
@@ -3981,13 +3996,13 @@
         <v>75894</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M27" s="7">
         <v>138</v>
@@ -3996,13 +4011,13 @@
         <v>150854</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,13 +4032,13 @@
         <v>19443</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -4032,13 +4047,13 @@
         <v>20038</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>38</v>
@@ -4047,13 +4062,13 @@
         <v>39481</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4083,13 @@
         <v>382220</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>380</v>
@@ -4083,13 +4098,13 @@
         <v>410321</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>742</v>
@@ -4098,13 +4113,13 @@
         <v>792541</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,7 +4175,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B31" s="5">
         <v>7</v>
@@ -4172,13 +4187,13 @@
         <v>202894</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H31" s="7">
         <v>181</v>
@@ -4187,13 +4202,13 @@
         <v>190753</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>366</v>
@@ -4202,13 +4217,13 @@
         <v>393647</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4238,13 @@
         <v>22429</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>16</v>
@@ -4238,13 +4253,13 @@
         <v>16715</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>37</v>
@@ -4253,13 +4268,13 @@
         <v>39145</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4289,13 @@
         <v>114464</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>235</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H33" s="7">
         <v>120</v>
@@ -4289,13 +4304,13 @@
         <v>127553</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M33" s="7">
         <v>225</v>
@@ -4304,13 +4319,13 @@
         <v>242017</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,13 +4340,13 @@
         <v>34664</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>239</v>
+        <v>20</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H34" s="7">
         <v>31</v>
@@ -4340,13 +4355,13 @@
         <v>32343</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M34" s="7">
         <v>63</v>
@@ -4355,13 +4370,13 @@
         <v>67007</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,13 +4391,13 @@
         <v>59031</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>61</v>
+        <v>254</v>
       </c>
       <c r="H35" s="7">
         <v>61</v>
@@ -4391,13 +4406,13 @@
         <v>67184</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="M35" s="7">
         <v>116</v>
@@ -4406,13 +4421,13 @@
         <v>126215</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>254</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4442,13 @@
         <v>76939</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H36" s="7">
         <v>69</v>
@@ -4442,13 +4457,13 @@
         <v>71545</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>58</v>
+        <v>265</v>
       </c>
       <c r="M36" s="7">
         <v>137</v>
@@ -4457,13 +4472,13 @@
         <v>148484</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,13 +4493,13 @@
         <v>31925</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>110</v>
+        <v>269</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>263</v>
+        <v>139</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H37" s="7">
         <v>48</v>
@@ -4493,13 +4508,13 @@
         <v>51776</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>183</v>
+        <v>271</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M37" s="7">
         <v>76</v>
@@ -4508,13 +4523,13 @@
         <v>83701</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>267</v>
+        <v>66</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,13 +4544,13 @@
         <v>217206</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="H38" s="7">
         <v>210</v>
@@ -4544,13 +4559,13 @@
         <v>227141</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M38" s="7">
         <v>412</v>
@@ -4559,13 +4574,13 @@
         <v>444348</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,7 +4636,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B40" s="5">
         <v>7</v>
@@ -4633,13 +4648,13 @@
         <v>352738</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H40" s="7">
         <v>336</v>
@@ -4648,13 +4663,13 @@
         <v>359656</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="M40" s="7">
         <v>681</v>
@@ -4663,13 +4678,13 @@
         <v>712394</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,13 +4699,13 @@
         <v>47136</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="H41" s="7">
         <v>44</v>
@@ -4699,13 +4714,13 @@
         <v>46940</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>293</v>
+        <v>231</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M41" s="7">
         <v>89</v>
@@ -4714,13 +4729,13 @@
         <v>94076</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>53</v>
+        <v>300</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>296</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4750,13 @@
         <v>106089</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H42" s="7">
         <v>116</v>
@@ -4750,13 +4765,13 @@
         <v>127090</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>302</v>
+        <v>173</v>
       </c>
       <c r="M42" s="7">
         <v>226</v>
@@ -4765,13 +4780,13 @@
         <v>233179</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4801,13 @@
         <v>30238</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>306</v>
+        <v>98</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="H43" s="7">
         <v>51</v>
@@ -4801,13 +4816,13 @@
         <v>55152</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M43" s="7">
         <v>82</v>
@@ -4816,13 +4831,13 @@
         <v>85389</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>314</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4852,13 @@
         <v>62074</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>39</v>
+        <v>315</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H44" s="7">
         <v>84</v>
@@ -4852,13 +4867,13 @@
         <v>90892</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>251</v>
+        <v>318</v>
       </c>
       <c r="M44" s="7">
         <v>144</v>
@@ -4867,13 +4882,13 @@
         <v>152966</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4903,13 @@
         <v>39913</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H45" s="7">
         <v>53</v>
@@ -4903,13 +4918,13 @@
         <v>59199</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>107</v>
+        <v>326</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M45" s="7">
         <v>94</v>
@@ -4918,13 +4933,13 @@
         <v>99112</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>326</v>
+        <v>246</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4954,13 @@
         <v>11153</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H46" s="7">
         <v>20</v>
@@ -4954,13 +4969,13 @@
         <v>21839</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M46" s="7">
         <v>31</v>
@@ -4969,13 +4984,13 @@
         <v>32992</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>335</v>
+        <v>135</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,13 +5005,13 @@
         <v>288227</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H47" s="7">
         <v>255</v>
@@ -5005,13 +5020,13 @@
         <v>283012</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M47" s="7">
         <v>544</v>
@@ -5020,13 +5035,13 @@
         <v>571238</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5109,13 @@
         <v>1059174</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H49" s="7">
         <v>949</v>
@@ -5109,13 +5124,13 @@
         <v>993030</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M49" s="7">
         <v>1955</v>
@@ -5124,13 +5139,13 @@
         <v>2052204</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5160,13 @@
         <v>151676</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H50" s="7">
         <v>130</v>
@@ -5160,13 +5175,13 @@
         <v>136569</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>53</v>
+        <v>359</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>239</v>
+        <v>360</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M50" s="7">
         <v>270</v>
@@ -5175,13 +5190,13 @@
         <v>288245</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>295</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5211,13 @@
         <v>423789</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="H51" s="7">
         <v>429</v>
@@ -5211,13 +5226,13 @@
         <v>453527</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>106</v>
+        <v>306</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M51" s="7">
         <v>836</v>
@@ -5226,13 +5241,13 @@
         <v>877316</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5262,13 @@
         <v>128074</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>371</v>
+        <v>91</v>
       </c>
       <c r="H52" s="7">
         <v>175</v>
@@ -5262,13 +5277,13 @@
         <v>182543</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>373</v>
+        <v>110</v>
       </c>
       <c r="M52" s="7">
         <v>297</v>
@@ -5277,13 +5292,13 @@
         <v>310617</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>308</v>
+        <v>376</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>310</v>
+        <v>377</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5313,13 @@
         <v>222310</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H53" s="7">
         <v>269</v>
@@ -5313,13 +5328,13 @@
         <v>289288</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>377</v>
+        <v>267</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>378</v>
+        <v>104</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M53" s="7">
         <v>479</v>
@@ -5328,13 +5343,13 @@
         <v>511597</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5364,13 @@
         <v>230146</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H54" s="7">
         <v>231</v>
@@ -5367,10 +5382,10 @@
         <v>46</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>384</v>
+        <v>117</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>45</v>
+        <v>388</v>
       </c>
       <c r="M54" s="7">
         <v>447</v>
@@ -5379,13 +5394,13 @@
         <v>477291</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>385</v>
+        <v>312</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>387</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5415,13 @@
         <v>73863</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H55" s="7">
         <v>102</v>
@@ -5415,13 +5430,13 @@
         <v>107303</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>390</v>
+        <v>133</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M55" s="7">
         <v>170</v>
@@ -5430,13 +5445,13 @@
         <v>181166</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5466,13 @@
         <v>1105318</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H56" s="7">
         <v>1053</v>
@@ -5466,13 +5481,13 @@
         <v>1135138</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>272</v>
+        <v>400</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M56" s="7">
         <v>2115</v>
@@ -5481,13 +5496,13 @@
         <v>2240456</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>402</v>
+        <v>346</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,7 +5558,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -5564,7 +5579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574AB05D-496B-43EB-95D0-E77B2B1ACE42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEC197C-91FC-4E70-B299-C9B86BAE8FF3}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5581,7 +5596,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5688,13 +5703,13 @@
         <v>37345</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>143</v>
+        <v>407</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H4" s="7">
         <v>72</v>
@@ -5703,13 +5718,13 @@
         <v>31955</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M4" s="7">
         <v>121</v>
@@ -5718,13 +5733,13 @@
         <v>69299</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5754,13 @@
         <v>2545</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>381</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -5754,13 +5769,13 @@
         <v>4800</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -5769,13 +5784,13 @@
         <v>7345</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>97</v>
+        <v>420</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +5805,13 @@
         <v>11590</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>421</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H6" s="7">
         <v>43</v>
@@ -5805,13 +5820,13 @@
         <v>25021</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>426</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="M6" s="7">
         <v>58</v>
@@ -5820,13 +5835,13 @@
         <v>36611</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +5856,13 @@
         <v>633</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>97</v>
+        <v>231</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -5856,13 +5871,13 @@
         <v>6172</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -5871,13 +5886,13 @@
         <v>6805</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5907,13 @@
         <v>6203</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -5907,13 +5922,13 @@
         <v>17908</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="M8" s="7">
         <v>38</v>
@@ -5922,13 +5937,13 @@
         <v>24111</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>165</v>
+        <v>443</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5958,13 @@
         <v>7974</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>137</v>
+        <v>447</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -5958,13 +5973,13 @@
         <v>5115</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>444</v>
+        <v>377</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -5973,13 +5988,13 @@
         <v>13089</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,13 +6009,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -6009,13 +6024,13 @@
         <v>543</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -6024,13 +6039,13 @@
         <v>543</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6045,13 +6060,13 @@
         <v>32900</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>456</v>
+        <v>220</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H11" s="7">
         <v>64</v>
@@ -6060,13 +6075,13 @@
         <v>37666</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="M11" s="7">
         <v>101</v>
@@ -6075,13 +6090,13 @@
         <v>70566</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,13 +6164,13 @@
         <v>227040</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H13" s="7">
         <v>383</v>
@@ -6164,13 +6179,13 @@
         <v>235083</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="M13" s="7">
         <v>650</v>
@@ -6179,13 +6194,13 @@
         <v>462123</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6200,13 +6215,13 @@
         <v>79210</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="H14" s="7">
         <v>106</v>
@@ -6215,13 +6230,13 @@
         <v>69578</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M14" s="7">
         <v>188</v>
@@ -6230,13 +6245,13 @@
         <v>148788</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>483</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,13 +6266,13 @@
         <v>45333</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>482</v>
+        <v>117</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>483</v>
+        <v>257</v>
       </c>
       <c r="H15" s="7">
         <v>106</v>
@@ -6266,13 +6281,13 @@
         <v>57049</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="M15" s="7">
         <v>161</v>
@@ -6281,13 +6296,13 @@
         <v>102382</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6302,13 +6317,13 @@
         <v>16456</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>321</v>
+        <v>492</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -6317,13 +6332,13 @@
         <v>22709</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>491</v>
+        <v>130</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>493</v>
+        <v>358</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -6332,13 +6347,13 @@
         <v>39165</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>497</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,13 +6368,13 @@
         <v>19199</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>388</v>
+        <v>499</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>119</v>
+        <v>500</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -6368,13 +6383,13 @@
         <v>31811</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>241</v>
+        <v>502</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -6383,13 +6398,13 @@
         <v>51009</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>498</v>
+        <v>125</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>499</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,13 +6419,13 @@
         <v>10983</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>502</v>
+        <v>417</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
@@ -6419,13 +6434,13 @@
         <v>15446</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>203</v>
+        <v>506</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M18" s="7">
         <v>41</v>
@@ -6434,13 +6449,13 @@
         <v>26429</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>505</v>
+        <v>337</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6455,13 +6470,13 @@
         <v>4072</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>510</v>
+        <v>418</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -6470,13 +6485,13 @@
         <v>6402</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>196</v>
+        <v>514</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -6485,13 +6500,13 @@
         <v>10474</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,13 +6521,13 @@
         <v>143673</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H20" s="7">
         <v>258</v>
@@ -6521,13 +6536,13 @@
         <v>149515</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>519</v>
+        <v>158</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M20" s="7">
         <v>402</v>
@@ -6536,13 +6551,13 @@
         <v>293188</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>274</v>
+        <v>523</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,7 +6584,7 @@
         <v>987</v>
       </c>
       <c r="I21" s="7">
-        <v>587593</v>
+        <v>587594</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>80</v>
@@ -6598,7 +6613,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5">
         <v>7</v>
@@ -6610,13 +6625,13 @@
         <v>360706</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H22" s="7">
         <v>566</v>
@@ -6625,13 +6640,13 @@
         <v>381003</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="M22" s="7">
         <v>939</v>
@@ -6640,13 +6655,13 @@
         <v>741710</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6676,13 @@
         <v>201868</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="H23" s="7">
         <v>193</v>
@@ -6676,13 +6691,13 @@
         <v>153878</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="M23" s="7">
         <v>332</v>
@@ -6691,13 +6706,13 @@
         <v>355746</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6727,13 @@
         <v>113846</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>542</v>
+        <v>189</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>368</v>
+        <v>545</v>
       </c>
       <c r="H24" s="7">
         <v>180</v>
@@ -6727,13 +6742,13 @@
         <v>114525</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="M24" s="7">
         <v>290</v>
@@ -6742,13 +6757,13 @@
         <v>228371</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,13 +6778,13 @@
         <v>28207</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>450</v>
+        <v>553</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>550</v>
+        <v>43</v>
       </c>
       <c r="H25" s="7">
         <v>62</v>
@@ -6778,13 +6793,13 @@
         <v>43920</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>556</v>
       </c>
       <c r="M25" s="7">
         <v>86</v>
@@ -6793,13 +6808,13 @@
         <v>72128</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>43</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6814,13 +6829,13 @@
         <v>64754</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="H26" s="7">
         <v>103</v>
@@ -6829,13 +6844,13 @@
         <v>72959</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>562</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="M26" s="7">
         <v>159</v>
@@ -6844,13 +6859,13 @@
         <v>137714</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>271</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>559</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6865,13 +6880,13 @@
         <v>37798</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>502</v>
+        <v>565</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="H27" s="7">
         <v>66</v>
@@ -6880,13 +6895,13 @@
         <v>49779</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>264</v>
+        <v>570</v>
       </c>
       <c r="M27" s="7">
         <v>101</v>
@@ -6895,13 +6910,13 @@
         <v>87577</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>110</v>
+        <v>269</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>566</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6916,13 +6931,13 @@
         <v>7060</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>567</v>
+        <v>38</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -6931,13 +6946,13 @@
         <v>14521</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>572</v>
+        <v>134</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -6946,13 +6961,13 @@
         <v>21581</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6967,13 +6982,13 @@
         <v>218087</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="H29" s="7">
         <v>319</v>
@@ -6982,13 +6997,13 @@
         <v>224579</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="M29" s="7">
         <v>533</v>
@@ -6997,13 +7012,13 @@
         <v>442666</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>154</v>
+        <v>587</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,7 +7074,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B31" s="5">
         <v>7</v>
@@ -7071,13 +7086,13 @@
         <v>295405</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="H31" s="7">
         <v>386</v>
@@ -7086,13 +7101,13 @@
         <v>379248</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>587</v>
+        <v>526</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="M31" s="7">
         <v>670</v>
@@ -7101,13 +7116,13 @@
         <v>674653</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7122,13 +7137,13 @@
         <v>55321</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="H32" s="7">
         <v>73</v>
@@ -7137,13 +7152,13 @@
         <v>59080</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="M32" s="7">
         <v>125</v>
@@ -7152,13 +7167,13 @@
         <v>114401</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7188,13 @@
         <v>114767</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="H33" s="7">
         <v>147</v>
@@ -7188,13 +7203,13 @@
         <v>103979</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="M33" s="7">
         <v>244</v>
@@ -7203,13 +7218,13 @@
         <v>218746</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>251</v>
+        <v>610</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,13 +7239,13 @@
         <v>50498</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>121</v>
+        <v>612</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="H34" s="7">
         <v>47</v>
@@ -7239,13 +7254,13 @@
         <v>34190</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>310</v>
+        <v>614</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>229</v>
+        <v>615</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>446</v>
+        <v>616</v>
       </c>
       <c r="M34" s="7">
         <v>89</v>
@@ -7254,13 +7269,13 @@
         <v>84688</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>163</v>
+        <v>617</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>359</v>
+        <v>618</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7275,13 +7290,13 @@
         <v>41904</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>296</v>
+        <v>620</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>609</v>
+        <v>111</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="H35" s="7">
         <v>93</v>
@@ -7290,13 +7305,13 @@
         <v>71822</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>558</v>
+        <v>622</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>611</v>
+        <v>549</v>
       </c>
       <c r="M35" s="7">
         <v>131</v>
@@ -7305,13 +7320,13 @@
         <v>113726</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7326,13 +7341,13 @@
         <v>24950</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>226</v>
+        <v>390</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>433</v>
+        <v>68</v>
       </c>
       <c r="H36" s="7">
         <v>52</v>
@@ -7341,13 +7356,13 @@
         <v>35768</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>617</v>
+        <v>415</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>98</v>
+        <v>627</v>
       </c>
       <c r="M36" s="7">
         <v>74</v>
@@ -7356,13 +7371,13 @@
         <v>60718</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>491</v>
+        <v>130</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>618</v>
+        <v>451</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>374</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7377,13 +7392,13 @@
         <v>14863</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>620</v>
+        <v>512</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>564</v>
+        <v>629</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -7392,13 +7407,13 @@
         <v>14517</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>419</v>
+        <v>630</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>513</v>
+        <v>631</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>621</v>
+        <v>391</v>
       </c>
       <c r="M37" s="7">
         <v>33</v>
@@ -7407,13 +7422,13 @@
         <v>29380</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>227</v>
+        <v>633</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>623</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7428,13 +7443,13 @@
         <v>119098</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="H38" s="7">
         <v>207</v>
@@ -7443,13 +7458,13 @@
         <v>158813</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="M38" s="7">
         <v>322</v>
@@ -7458,13 +7473,13 @@
         <v>277911</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>630</v>
+        <v>243</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7520,7 +7535,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B40" s="5">
         <v>7</v>
@@ -7532,13 +7547,13 @@
         <v>469153</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="H40" s="7">
         <v>655</v>
@@ -7547,13 +7562,13 @@
         <v>468239</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="M40" s="7">
         <v>1151</v>
@@ -7562,13 +7577,13 @@
         <v>937392</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7583,13 +7598,13 @@
         <v>123691</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="H41" s="7">
         <v>145</v>
@@ -7598,13 +7613,13 @@
         <v>109579</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>645</v>
+        <v>487</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>420</v>
+        <v>268</v>
       </c>
       <c r="M41" s="7">
         <v>273</v>
@@ -7613,13 +7628,13 @@
         <v>233270</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>648</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7634,13 +7649,13 @@
         <v>112684</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>650</v>
+        <v>266</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>473</v>
+        <v>658</v>
       </c>
       <c r="H42" s="7">
         <v>223</v>
@@ -7649,13 +7664,13 @@
         <v>171616</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>57</v>
+        <v>235</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="M42" s="7">
         <v>334</v>
@@ -7664,13 +7679,13 @@
         <v>284300</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>480</v>
+        <v>663</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7685,13 +7700,13 @@
         <v>21039</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>202</v>
+        <v>665</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>507</v>
+        <v>47</v>
       </c>
       <c r="H43" s="7">
         <v>57</v>
@@ -7700,13 +7715,13 @@
         <v>40219</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>231</v>
+        <v>666</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>656</v>
+        <v>391</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>358</v>
+        <v>667</v>
       </c>
       <c r="M43" s="7">
         <v>79</v>
@@ -7715,13 +7730,13 @@
         <v>61258</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>657</v>
+        <v>337</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>502</v>
+        <v>668</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7736,13 +7751,13 @@
         <v>45054</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>659</v>
+        <v>625</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="H44" s="7">
         <v>101</v>
@@ -7751,13 +7766,13 @@
         <v>71847</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>122</v>
+        <v>672</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="M44" s="7">
         <v>150</v>
@@ -7766,13 +7781,13 @@
         <v>116901</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>663</v>
+        <v>162</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>664</v>
+        <v>568</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>39</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,13 +7802,13 @@
         <v>27616</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="H45" s="7">
         <v>49</v>
@@ -7802,13 +7817,13 @@
         <v>49337</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>656</v>
+        <v>676</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="M45" s="7">
         <v>77</v>
@@ -7817,13 +7832,13 @@
         <v>76953</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,13 +7853,13 @@
         <v>10638</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>671</v>
+        <v>199</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>672</v>
+        <v>331</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="H46" s="7">
         <v>34</v>
@@ -7853,13 +7868,13 @@
         <v>25147</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="M46" s="7">
         <v>47</v>
@@ -7868,13 +7883,13 @@
         <v>35785</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>677</v>
+        <v>633</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7889,13 +7904,13 @@
         <v>143097</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>600</v>
+        <v>687</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="H47" s="7">
         <v>282</v>
@@ -7904,13 +7919,13 @@
         <v>202925</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="M47" s="7">
         <v>431</v>
@@ -7919,13 +7934,13 @@
         <v>346022</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7993,13 +8008,13 @@
         <v>1389649</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="H49" s="7">
         <v>2062</v>
@@ -8008,13 +8023,13 @@
         <v>1495528</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="M49" s="7">
         <v>3531</v>
@@ -8023,13 +8038,13 @@
         <v>2885177</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>694</v>
+        <v>531</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8044,13 +8059,13 @@
         <v>462634</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="H50" s="7">
         <v>526</v>
@@ -8059,13 +8074,13 @@
         <v>396916</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>699</v>
+        <v>307</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="M50" s="7">
         <v>931</v>
@@ -8074,13 +8089,13 @@
         <v>859550</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>703</v>
+        <v>169</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>302</v>
+        <v>709</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8095,13 +8110,13 @@
         <v>398220</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="H51" s="7">
         <v>699</v>
@@ -8110,13 +8125,13 @@
         <v>472190</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="M51" s="7">
         <v>1087</v>
@@ -8125,13 +8140,13 @@
         <v>870410</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>297</v>
+        <v>483</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>711</v>
+        <v>482</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -8146,13 +8161,13 @@
         <v>116833</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>447</v>
+        <v>718</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>713</v>
+        <v>326</v>
       </c>
       <c r="H52" s="7">
         <v>216</v>
@@ -8161,13 +8176,13 @@
         <v>147211</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>70</v>
+        <v>719</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>714</v>
+        <v>250</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="M52" s="7">
         <v>322</v>
@@ -8176,13 +8191,13 @@
         <v>264044</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8197,13 +8212,13 @@
         <v>177114</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>718</v>
+        <v>556</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>90</v>
+        <v>375</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>194</v>
+        <v>389</v>
       </c>
       <c r="H53" s="7">
         <v>383</v>
@@ -8212,13 +8227,13 @@
         <v>266348</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="M53" s="7">
         <v>557</v>
@@ -8227,13 +8242,13 @@
         <v>443461</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>670</v>
+        <v>726</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>490</v>
+        <v>324</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>311</v>
+        <v>619</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8248,13 +8263,13 @@
         <v>109321</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>669</v>
+        <v>728</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>722</v>
+        <v>614</v>
       </c>
       <c r="H54" s="7">
         <v>205</v>
@@ -8263,13 +8278,13 @@
         <v>155445</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>313</v>
+        <v>571</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>724</v>
+        <v>324</v>
       </c>
       <c r="M54" s="7">
         <v>307</v>
@@ -8278,13 +8293,13 @@
         <v>264766</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>725</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8299,13 +8314,13 @@
         <v>36633</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>508</v>
+        <v>730</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="H55" s="7">
         <v>86</v>
@@ -8314,13 +8329,13 @@
         <v>61131</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>619</v>
+        <v>734</v>
       </c>
       <c r="M55" s="7">
         <v>125</v>
@@ -8329,13 +8344,13 @@
         <v>97764</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>729</v>
+        <v>458</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>335</v>
+        <v>735</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>66</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8350,13 +8365,13 @@
         <v>656856</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>732</v>
+        <v>582</v>
       </c>
       <c r="H56" s="7">
         <v>1130</v>
@@ -8365,13 +8380,13 @@
         <v>773497</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="M56" s="7">
         <v>1789</v>
@@ -8380,13 +8395,13 @@
         <v>1430353</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8442,7 +8457,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34F1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34F1-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4371801-FF55-43F3-B578-D49782D91624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD366B5B-8389-4A3A-B13B-684628949421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E48657AC-A34C-47F0-93EB-B5F0D1900D7C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30DAB308-F42C-4C66-B0FF-D5F675823B49}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="744">
-  <si>
-    <t>Población según el número de días que caminó por lo menos 10 minutos seguidos a lo largo de los últimos 7 días en 2015 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="740">
+  <si>
+    <t>Población según el número de días que caminó por lo menos 10 minutos seguidos a lo largo de los últimos 7 días en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,43 +66,43 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>37,74%</t>
   </si>
   <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
   </si>
   <si>
     <t>34,62%</t>
   </si>
   <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
   </si>
   <si>
     <t>36,2%</t>
   </si>
   <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
   </si>
   <si>
     <t>7,11%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
   </si>
   <si>
     <t>5,8%</t>
@@ -111,2103 +111,2094 @@
     <t>2,48%</t>
   </si>
   <si>
-    <t>11,48%</t>
+    <t>11,72%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
   </si>
   <si>
     <t>10,52%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días que caminó por lo menos 10 minutos seguidos a lo largo de los últimos 7 días en 2023 (Tasa respuesta: 98,92%)</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
   </si>
   <si>
     <t>5,59%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días que caminó por lo menos 10 minutos seguidos a lo largo de los últimos 7 días en 2023 (Tasa respuesta: 98,92%)</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
     <t>7,07%</t>
   </si>
   <si>
@@ -2248,9 +2239,6 @@
   </si>
   <si>
     <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
   </si>
   <si>
     <t>20,53%</t>
@@ -2680,7 +2668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C75445-C745-47FC-A521-EF470B73ECC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68BAC44-6195-404E-8D70-D7635BA8C550}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3116,7 +3104,7 @@
         <v>65</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3125,13 +3113,13 @@
         <v>1873</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -3140,13 +3128,13 @@
         <v>3858</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,10 +3149,10 @@
         <v>24940</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>73</v>
@@ -3505,7 +3493,7 @@
         <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,13 +3508,13 @@
         <v>28651</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -3535,13 +3523,13 @@
         <v>27656</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M18" s="7">
         <v>56</v>
@@ -3550,13 +3538,13 @@
         <v>56307</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,13 +3559,13 @@
         <v>9356</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -3586,13 +3574,13 @@
         <v>11778</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>21</v>
@@ -3601,13 +3589,13 @@
         <v>21134</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,13 +3610,13 @@
         <v>192725</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>180</v>
@@ -3637,13 +3625,13 @@
         <v>187893</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>365</v>
@@ -3652,13 +3640,13 @@
         <v>380618</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,7 +3702,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B22" s="5">
         <v>7</v>
@@ -3726,13 +3714,13 @@
         <v>262499</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>208</v>
@@ -3741,13 +3729,13 @@
         <v>218368</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>450</v>
@@ -3756,13 +3744,13 @@
         <v>480867</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,13 +3765,13 @@
         <v>48985</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H23" s="7">
         <v>40</v>
@@ -3792,13 +3780,13 @@
         <v>42796</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>86</v>
@@ -3807,13 +3795,13 @@
         <v>91782</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,13 +3816,13 @@
         <v>129469</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>127</v>
@@ -3843,13 +3831,13 @@
         <v>134559</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>246</v>
@@ -3858,13 +3846,13 @@
         <v>264029</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3867,13 @@
         <v>35943</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -3894,10 +3882,10 @@
         <v>54592</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>178</v>
@@ -3951,7 +3939,7 @@
         <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>144</v>
@@ -3960,10 +3948,10 @@
         <v>155255</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>189</v>
@@ -4014,7 +4002,7 @@
         <v>196</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>197</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>184</v>
@@ -4032,13 +4020,13 @@
         <v>19443</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -4047,13 +4035,13 @@
         <v>20038</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>38</v>
@@ -4062,13 +4050,13 @@
         <v>39481</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4071,13 @@
         <v>382220</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>380</v>
@@ -4098,13 +4086,13 @@
         <v>410321</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>742</v>
@@ -4113,13 +4101,13 @@
         <v>792541</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,7 +4163,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B31" s="5">
         <v>7</v>
@@ -4187,13 +4175,13 @@
         <v>202894</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>218</v>
+        <v>154</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>181</v>
@@ -4202,13 +4190,13 @@
         <v>190753</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>366</v>
@@ -4217,13 +4205,13 @@
         <v>393647</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4226,13 @@
         <v>22429</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>16</v>
@@ -4253,13 +4241,13 @@
         <v>16715</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>37</v>
@@ -4268,13 +4256,13 @@
         <v>39145</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,13 +4277,13 @@
         <v>114464</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H33" s="7">
         <v>120</v>
@@ -4304,13 +4292,13 @@
         <v>127553</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M33" s="7">
         <v>225</v>
@@ -4319,13 +4307,13 @@
         <v>242017</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4328,13 @@
         <v>34664</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>20</v>
+        <v>242</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H34" s="7">
         <v>31</v>
@@ -4355,13 +4343,13 @@
         <v>32343</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>248</v>
+        <v>110</v>
       </c>
       <c r="M34" s="7">
         <v>63</v>
@@ -4370,13 +4358,13 @@
         <v>67007</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4379,13 @@
         <v>59031</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H35" s="7">
         <v>61</v>
@@ -4406,13 +4394,13 @@
         <v>67184</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>256</v>
+        <v>93</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="M35" s="7">
         <v>116</v>
@@ -4421,13 +4409,13 @@
         <v>126215</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,13 +4430,13 @@
         <v>76939</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H36" s="7">
         <v>69</v>
@@ -4457,13 +4445,13 @@
         <v>71545</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M36" s="7">
         <v>137</v>
@@ -4472,13 +4460,13 @@
         <v>148484</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,13 +4481,13 @@
         <v>31925</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H37" s="7">
         <v>48</v>
@@ -4508,13 +4496,13 @@
         <v>51776</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M37" s="7">
         <v>76</v>
@@ -4523,13 +4511,13 @@
         <v>83701</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>66</v>
+        <v>271</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>275</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,13 +4532,13 @@
         <v>217206</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H38" s="7">
         <v>210</v>
@@ -4559,13 +4547,13 @@
         <v>227141</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M38" s="7">
         <v>412</v>
@@ -4574,13 +4562,13 @@
         <v>444348</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,7 +4624,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B40" s="5">
         <v>7</v>
@@ -4648,13 +4636,13 @@
         <v>352738</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H40" s="7">
         <v>336</v>
@@ -4663,13 +4651,13 @@
         <v>359656</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M40" s="7">
         <v>681</v>
@@ -4678,13 +4666,13 @@
         <v>712394</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,13 +4687,13 @@
         <v>47136</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>271</v>
+        <v>186</v>
       </c>
       <c r="H41" s="7">
         <v>44</v>
@@ -4714,13 +4702,13 @@
         <v>46940</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>231</v>
+        <v>295</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M41" s="7">
         <v>89</v>
@@ -4729,13 +4717,13 @@
         <v>94076</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>299</v>
+        <v>175</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>22</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,13 +4738,13 @@
         <v>106089</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H42" s="7">
         <v>116</v>
@@ -4765,13 +4753,13 @@
         <v>127090</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M42" s="7">
         <v>226</v>
@@ -4780,13 +4768,13 @@
         <v>233179</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4789,13 @@
         <v>30238</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>98</v>
+        <v>242</v>
       </c>
       <c r="F43" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H43" s="7">
         <v>51</v>
@@ -4819,10 +4807,10 @@
         <v>310</v>
       </c>
       <c r="K43" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M43" s="7">
         <v>82</v>
@@ -4831,13 +4819,13 @@
         <v>85389</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,10 +4843,10 @@
         <v>315</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>124</v>
+        <v>316</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H44" s="7">
         <v>84</v>
@@ -4867,13 +4855,13 @@
         <v>90892</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M44" s="7">
         <v>144</v>
@@ -4882,13 +4870,13 @@
         <v>152966</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +4891,13 @@
         <v>39913</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H45" s="7">
         <v>53</v>
@@ -4918,13 +4906,13 @@
         <v>59199</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>327</v>
+        <v>193</v>
       </c>
       <c r="M45" s="7">
         <v>94</v>
@@ -4933,13 +4921,13 @@
         <v>99112</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,13 +4942,13 @@
         <v>11153</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H46" s="7">
         <v>20</v>
@@ -4969,13 +4957,13 @@
         <v>21839</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M46" s="7">
         <v>31</v>
@@ -4984,13 +4972,13 @@
         <v>32992</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>135</v>
+        <v>338</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,13 +4993,13 @@
         <v>288227</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H47" s="7">
         <v>255</v>
@@ -5020,13 +5008,13 @@
         <v>283012</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M47" s="7">
         <v>544</v>
@@ -5035,13 +5023,13 @@
         <v>571238</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,13 +5097,13 @@
         <v>1059174</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H49" s="7">
         <v>949</v>
@@ -5124,13 +5112,13 @@
         <v>993030</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M49" s="7">
         <v>1955</v>
@@ -5139,13 +5127,13 @@
         <v>2052204</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5148,13 @@
         <v>151676</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H50" s="7">
         <v>130</v>
@@ -5175,13 +5163,13 @@
         <v>136569</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M50" s="7">
         <v>270</v>
@@ -5190,13 +5178,13 @@
         <v>288245</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5199,13 @@
         <v>423789</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H51" s="7">
         <v>429</v>
@@ -5226,13 +5214,13 @@
         <v>453527</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>306</v>
+        <v>371</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M51" s="7">
         <v>836</v>
@@ -5241,13 +5229,13 @@
         <v>877316</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5250,13 @@
         <v>128074</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>374</v>
+        <v>98</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>91</v>
+        <v>376</v>
       </c>
       <c r="H52" s="7">
         <v>175</v>
@@ -5280,10 +5268,10 @@
         <v>113</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>375</v>
+        <v>162</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>110</v>
+        <v>377</v>
       </c>
       <c r="M52" s="7">
         <v>297</v>
@@ -5295,10 +5283,10 @@
         <v>376</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>378</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,10 +5304,10 @@
         <v>379</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H53" s="7">
         <v>269</v>
@@ -5328,13 +5316,13 @@
         <v>289288</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>267</v>
+        <v>381</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>104</v>
+        <v>382</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M53" s="7">
         <v>479</v>
@@ -5343,13 +5331,13 @@
         <v>511597</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>384</v>
+        <v>93</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>385</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,10 +5355,10 @@
         <v>118</v>
       </c>
       <c r="F54" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H54" s="7">
         <v>231</v>
@@ -5382,10 +5370,10 @@
         <v>46</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M54" s="7">
         <v>447</v>
@@ -5394,13 +5382,13 @@
         <v>477291</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>312</v>
+        <v>388</v>
       </c>
       <c r="P54" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,10 +5406,10 @@
         <v>390</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>69</v>
+        <v>391</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H55" s="7">
         <v>102</v>
@@ -5430,13 +5418,13 @@
         <v>107303</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>133</v>
+        <v>393</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>393</v>
+        <v>26</v>
       </c>
       <c r="M55" s="7">
         <v>170</v>
@@ -5445,7 +5433,7 @@
         <v>181166</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>394</v>
+        <v>20</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>395</v>
@@ -5496,10 +5484,10 @@
         <v>2240456</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="Q56" s="7" t="s">
         <v>404</v>
@@ -5579,7 +5567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEC197C-91FC-4E70-B299-C9B86BAE8FF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA98BE-72C3-4924-89B6-677BC0326BF3}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5733,13 +5721,13 @@
         <v>69299</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,13 +5742,13 @@
         <v>2545</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -5769,13 +5757,13 @@
         <v>4800</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -5784,7 +5772,7 @@
         <v>7345</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>420</v>
+        <v>362</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>421</v>
@@ -5808,10 +5796,10 @@
         <v>423</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>424</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H6" s="7">
         <v>43</v>
@@ -5820,13 +5808,13 @@
         <v>25021</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M6" s="7">
         <v>58</v>
@@ -5835,13 +5823,13 @@
         <v>36611</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,13 +5844,13 @@
         <v>633</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>331</v>
+        <v>432</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -5871,13 +5859,13 @@
         <v>6172</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -5886,13 +5874,13 @@
         <v>6805</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5895,13 @@
         <v>6203</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>437</v>
+        <v>96</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -5922,13 +5910,13 @@
         <v>17908</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M8" s="7">
         <v>38</v>
@@ -5937,10 +5925,10 @@
         <v>24111</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>444</v>
+        <v>386</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>445</v>
@@ -5973,13 +5961,13 @@
         <v>5115</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>377</v>
+        <v>449</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>449</v>
+        <v>380</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -6063,7 +6051,7 @@
         <v>459</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>460</v>
@@ -6090,13 +6078,13 @@
         <v>70566</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6152,13 @@
         <v>227040</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="H13" s="7">
         <v>383</v>
@@ -6179,13 +6167,13 @@
         <v>235083</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="M13" s="7">
         <v>650</v>
@@ -6194,13 +6182,13 @@
         <v>462123</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6215,13 +6203,13 @@
         <v>79210</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="H14" s="7">
         <v>106</v>
@@ -6230,13 +6218,13 @@
         <v>69578</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="M14" s="7">
         <v>188</v>
@@ -6245,13 +6233,13 @@
         <v>148788</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6266,13 +6254,13 @@
         <v>45333</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>257</v>
+        <v>484</v>
       </c>
       <c r="H15" s="7">
         <v>106</v>
@@ -6281,13 +6269,13 @@
         <v>57049</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="M15" s="7">
         <v>161</v>
@@ -6296,13 +6284,13 @@
         <v>102382</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6317,13 +6305,13 @@
         <v>16456</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -6332,13 +6320,13 @@
         <v>22709</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>130</v>
+        <v>493</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -6368,7 +6356,7 @@
         <v>19199</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>499</v>
@@ -6383,13 +6371,13 @@
         <v>31811</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -6398,13 +6386,13 @@
         <v>51009</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6419,13 +6407,13 @@
         <v>10983</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>505</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
@@ -6434,13 +6422,13 @@
         <v>15446</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>507</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M18" s="7">
         <v>41</v>
@@ -6449,13 +6437,13 @@
         <v>26429</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6470,13 +6458,13 @@
         <v>4072</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>511</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -6485,13 +6473,13 @@
         <v>6402</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -6500,13 +6488,13 @@
         <v>10474</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,13 +6509,13 @@
         <v>143673</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="H20" s="7">
         <v>258</v>
@@ -6536,13 +6524,13 @@
         <v>149515</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>158</v>
+        <v>274</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="M20" s="7">
         <v>402</v>
@@ -6551,13 +6539,13 @@
         <v>293188</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6613,7 +6601,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B22" s="5">
         <v>7</v>
@@ -6625,13 +6613,13 @@
         <v>360706</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="H22" s="7">
         <v>566</v>
@@ -6640,13 +6628,13 @@
         <v>381003</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="M22" s="7">
         <v>939</v>
@@ -6655,13 +6643,13 @@
         <v>741710</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,13 +6664,13 @@
         <v>201868</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="H23" s="7">
         <v>193</v>
@@ -6691,13 +6679,13 @@
         <v>153878</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="M23" s="7">
         <v>332</v>
@@ -6706,13 +6694,13 @@
         <v>355746</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,10 +6715,10 @@
         <v>113846</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>545</v>
@@ -6799,7 +6787,7 @@
         <v>555</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>556</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>86</v>
@@ -6811,10 +6799,10 @@
         <v>496</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>557</v>
+        <v>41</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>375</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6829,13 +6817,13 @@
         <v>64754</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>560</v>
       </c>
       <c r="H26" s="7">
         <v>103</v>
@@ -6844,13 +6832,13 @@
         <v>72959</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="M26" s="7">
         <v>159</v>
@@ -6859,13 +6847,13 @@
         <v>137714</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6880,13 +6868,13 @@
         <v>37798</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>566</v>
+        <v>394</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H27" s="7">
         <v>66</v>
@@ -6895,13 +6883,13 @@
         <v>49779</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M27" s="7">
         <v>101</v>
@@ -6910,13 +6898,13 @@
         <v>87577</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>571</v>
+        <v>247</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>183</v>
+        <v>568</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6931,13 +6919,13 @@
         <v>7060</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>38</v>
+        <v>569</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -6946,13 +6934,13 @@
         <v>14521</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -6961,13 +6949,13 @@
         <v>21581</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>577</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6982,13 +6970,13 @@
         <v>218087</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H29" s="7">
         <v>319</v>
@@ -6997,13 +6985,13 @@
         <v>224579</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="M29" s="7">
         <v>533</v>
@@ -7012,13 +7000,13 @@
         <v>442666</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7074,7 +7062,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B31" s="5">
         <v>7</v>
@@ -7086,13 +7074,13 @@
         <v>295405</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>589</v>
+        <v>146</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="H31" s="7">
         <v>386</v>
@@ -7101,13 +7089,13 @@
         <v>379248</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="M31" s="7">
         <v>670</v>
@@ -7116,13 +7104,13 @@
         <v>674653</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7137,13 +7125,13 @@
         <v>55321</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>191</v>
+        <v>592</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H32" s="7">
         <v>73</v>
@@ -7152,13 +7140,13 @@
         <v>59080</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="M32" s="7">
         <v>125</v>
@@ -7167,13 +7155,13 @@
         <v>114401</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>602</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7188,13 +7176,13 @@
         <v>114767</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="H33" s="7">
         <v>147</v>
@@ -7203,13 +7191,13 @@
         <v>103979</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="M33" s="7">
         <v>244</v>
@@ -7218,13 +7206,13 @@
         <v>218746</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7239,13 +7227,13 @@
         <v>50498</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H34" s="7">
         <v>47</v>
@@ -7254,13 +7242,13 @@
         <v>34190</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="M34" s="7">
         <v>89</v>
@@ -7269,13 +7257,13 @@
         <v>84688</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7290,13 +7278,13 @@
         <v>41904</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>111</v>
+        <v>617</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H35" s="7">
         <v>93</v>
@@ -7305,10 +7293,10 @@
         <v>71822</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>164</v>
+        <v>620</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>549</v>
@@ -7320,13 +7308,13 @@
         <v>113726</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7341,13 +7329,13 @@
         <v>24950</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>625</v>
+        <v>313</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>390</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>68</v>
+        <v>623</v>
       </c>
       <c r="H36" s="7">
         <v>52</v>
@@ -7356,13 +7344,13 @@
         <v>35768</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>626</v>
+        <v>111</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="M36" s="7">
         <v>74</v>
@@ -7371,13 +7359,13 @@
         <v>60718</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>130</v>
+        <v>493</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>451</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7392,13 +7380,13 @@
         <v>14863</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -7407,13 +7395,13 @@
         <v>14517</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>630</v>
+        <v>391</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>391</v>
+        <v>628</v>
       </c>
       <c r="M37" s="7">
         <v>33</v>
@@ -7422,13 +7410,13 @@
         <v>29380</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>391</v>
+        <v>628</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7443,13 +7431,13 @@
         <v>119098</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="H38" s="7">
         <v>207</v>
@@ -7458,13 +7446,13 @@
         <v>158813</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>639</v>
+        <v>149</v>
       </c>
       <c r="M38" s="7">
         <v>322</v>
@@ -7473,13 +7461,13 @@
         <v>277911</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>243</v>
+        <v>636</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7535,7 +7523,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B40" s="5">
         <v>7</v>
@@ -7547,13 +7535,13 @@
         <v>469153</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="H40" s="7">
         <v>655</v>
@@ -7562,13 +7550,13 @@
         <v>468239</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="M40" s="7">
         <v>1151</v>
@@ -7577,13 +7565,13 @@
         <v>937392</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7598,13 +7586,13 @@
         <v>123691</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>652</v>
+        <v>168</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>653</v>
+        <v>169</v>
       </c>
       <c r="H41" s="7">
         <v>145</v>
@@ -7613,13 +7601,13 @@
         <v>109579</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>654</v>
+        <v>255</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>268</v>
+        <v>649</v>
       </c>
       <c r="M41" s="7">
         <v>273</v>
@@ -7628,13 +7616,13 @@
         <v>233270</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>42</v>
+        <v>652</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7649,13 +7637,13 @@
         <v>112684</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="H42" s="7">
         <v>223</v>
@@ -7664,13 +7652,13 @@
         <v>171616</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="M42" s="7">
         <v>334</v>
@@ -7679,13 +7667,13 @@
         <v>284300</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7700,13 +7688,13 @@
         <v>21039</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>47</v>
+        <v>662</v>
       </c>
       <c r="H43" s="7">
         <v>57</v>
@@ -7715,13 +7703,13 @@
         <v>40219</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>391</v>
+        <v>628</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="M43" s="7">
         <v>79</v>
@@ -7730,13 +7718,13 @@
         <v>61258</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>203</v>
+        <v>665</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>668</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7751,13 +7739,13 @@
         <v>45054</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>625</v>
+        <v>313</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>670</v>
+        <v>129</v>
       </c>
       <c r="H44" s="7">
         <v>101</v>
@@ -7766,13 +7754,13 @@
         <v>71847</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>671</v>
+        <v>159</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>673</v>
+        <v>387</v>
       </c>
       <c r="M44" s="7">
         <v>150</v>
@@ -7781,10 +7769,10 @@
         <v>116901</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>162</v>
+        <v>668</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>315</v>
@@ -7802,13 +7790,13 @@
         <v>27616</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>674</v>
+        <v>201</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="H45" s="7">
         <v>49</v>
@@ -7820,10 +7808,10 @@
         <v>97</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="M45" s="7">
         <v>77</v>
@@ -7832,13 +7820,13 @@
         <v>76953</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7853,13 +7841,13 @@
         <v>10638</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>199</v>
+        <v>338</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>331</v>
+        <v>432</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="H46" s="7">
         <v>34</v>
@@ -7868,13 +7856,13 @@
         <v>25147</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="M46" s="7">
         <v>47</v>
@@ -7883,13 +7871,13 @@
         <v>35785</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7904,13 +7892,13 @@
         <v>143097</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>688</v>
+        <v>240</v>
       </c>
       <c r="H47" s="7">
         <v>282</v>
@@ -7919,13 +7907,13 @@
         <v>202925</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="M47" s="7">
         <v>431</v>
@@ -7934,13 +7922,13 @@
         <v>346022</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8008,13 +7996,13 @@
         <v>1389649</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="H49" s="7">
         <v>2062</v>
@@ -8023,13 +8011,13 @@
         <v>1495528</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="M49" s="7">
         <v>3531</v>
@@ -8038,13 +8026,13 @@
         <v>2885177</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8059,13 +8047,13 @@
         <v>462634</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>704</v>
+        <v>42</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="H50" s="7">
         <v>526</v>
@@ -8074,13 +8062,13 @@
         <v>396916</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>307</v>
+        <v>698</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="M50" s="7">
         <v>931</v>
@@ -8089,13 +8077,13 @@
         <v>859550</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>169</v>
+        <v>702</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8110,13 +8098,13 @@
         <v>398220</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="H51" s="7">
         <v>699</v>
@@ -8125,13 +8113,13 @@
         <v>472190</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="M51" s="7">
         <v>1087</v>
@@ -8140,13 +8128,13 @@
         <v>870410</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -8161,13 +8149,13 @@
         <v>116833</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>326</v>
+        <v>713</v>
       </c>
       <c r="H52" s="7">
         <v>216</v>
@@ -8176,13 +8164,13 @@
         <v>147211</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>250</v>
+        <v>715</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="M52" s="7">
         <v>322</v>
@@ -8191,10 +8179,10 @@
         <v>264044</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="Q52" s="7" t="s">
         <v>94</v>
@@ -8212,13 +8200,13 @@
         <v>177114</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>556</v>
+        <v>183</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>375</v>
+        <v>225</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>389</v>
+        <v>719</v>
       </c>
       <c r="H53" s="7">
         <v>383</v>
@@ -8227,13 +8215,13 @@
         <v>266348</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="M53" s="7">
         <v>557</v>
@@ -8242,13 +8230,13 @@
         <v>443461</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>324</v>
+        <v>194</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8263,13 +8251,13 @@
         <v>109321</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H54" s="7">
         <v>205</v>
@@ -8278,13 +8266,13 @@
         <v>155445</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>571</v>
+        <v>247</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>324</v>
+        <v>194</v>
       </c>
       <c r="M54" s="7">
         <v>307</v>
@@ -8293,13 +8281,13 @@
         <v>264766</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>360</v>
+        <v>295</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8314,13 +8302,13 @@
         <v>36633</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="H55" s="7">
         <v>86</v>
@@ -8329,13 +8317,13 @@
         <v>61131</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="M55" s="7">
         <v>125</v>
@@ -8347,10 +8335,10 @@
         <v>458</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8365,13 +8353,13 @@
         <v>656856</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>737</v>
+        <v>78</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H56" s="7">
         <v>1130</v>
@@ -8380,13 +8368,13 @@
         <v>773497</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="M56" s="7">
         <v>1789</v>
@@ -8395,13 +8383,13 @@
         <v>1430353</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P34F1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34F1-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD366B5B-8389-4A3A-B13B-684628949421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7136A43D-A9DC-47A9-9196-DA32A13E2DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30DAB308-F42C-4C66-B0FF-D5F675823B49}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8757DA6D-261C-47A4-8429-2CB574D6FA64}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="739">
   <si>
     <t>Población según el número de días que caminó por lo menos 10 minutos seguidos a lo largo de los últimos 7 días en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -72,2191 +72,2188 @@
     <t>37,74%</t>
   </si>
   <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
   </si>
   <si>
     <t>34,62%</t>
   </si>
   <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
   </si>
   <si>
     <t>36,2%</t>
   </si>
   <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
   </si>
   <si>
     <t>7,11%</t>
   </si>
   <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días que caminó por lo menos 10 minutos seguidos a lo largo de los últimos 7 días en 2023 (Tasa respuesta: 98,92%)</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
   </si>
   <si>
     <t>18,4%</t>
   </si>
   <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días que caminó por lo menos 10 minutos seguidos a lo largo de los últimos 7 días en 2023 (Tasa respuesta: 98,92%)</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
+    <t>22,01%</t>
   </si>
   <si>
     <t>20,1%</t>
   </si>
   <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
   </si>
 </sst>
 </file>
@@ -2668,7 +2665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68BAC44-6195-404E-8D70-D7635BA8C550}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2903070F-7252-47F3-B195-B67491736B5F}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3080,10 +3077,10 @@
         <v>61</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3095,13 @@
         <v>1986</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3116,7 +3113,7 @@
         <v>66</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>67</v>
@@ -3289,7 +3286,7 @@
         <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3301,13 @@
         <v>24839</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -3319,13 +3316,13 @@
         <v>23547</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
@@ -3334,13 +3331,13 @@
         <v>48386</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,13 +3352,13 @@
         <v>57125</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H15" s="7">
         <v>53</v>
@@ -3370,13 +3367,13 @@
         <v>52394</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M15" s="7">
         <v>109</v>
@@ -3388,10 +3385,10 @@
         <v>61</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,7 +3409,7 @@
         <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -3421,13 +3418,13 @@
         <v>33258</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -3436,13 +3433,13 @@
         <v>57583</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,13 +3454,13 @@
         <v>24170</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -3472,13 +3469,13 @@
         <v>37950</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -3487,13 +3484,13 @@
         <v>62120</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,13 +3505,13 @@
         <v>28651</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -3523,13 +3520,13 @@
         <v>27656</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>56</v>
@@ -3538,7 +3535,7 @@
         <v>56307</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>128</v>
@@ -3771,7 +3768,7 @@
         <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="H23" s="7">
         <v>40</v>
@@ -3780,10 +3777,10 @@
         <v>42796</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>161</v>
@@ -3795,10 +3792,10 @@
         <v>91782</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>163</v>
@@ -3837,7 +3834,7 @@
         <v>168</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="M24" s="7">
         <v>246</v>
@@ -3846,13 +3843,13 @@
         <v>264029</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3864,13 @@
         <v>35943</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -3882,13 +3879,13 @@
         <v>54592</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -3897,13 +3894,13 @@
         <v>90535</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3915,13 @@
         <v>68910</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>81</v>
@@ -3933,13 +3930,13 @@
         <v>86344</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>144</v>
@@ -3948,13 +3945,13 @@
         <v>155255</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>52</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3966,13 @@
         <v>74960</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>70</v>
@@ -3984,13 +3981,13 @@
         <v>75894</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>138</v>
@@ -3999,13 +3996,13 @@
         <v>150854</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4017,13 @@
         <v>19443</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -4041,7 +4038,7 @@
         <v>200</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="M28" s="7">
         <v>38</v>
@@ -4050,13 +4047,13 @@
         <v>39481</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,13 +4068,13 @@
         <v>382220</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>380</v>
@@ -4086,13 +4083,13 @@
         <v>410321</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>742</v>
@@ -4101,13 +4098,13 @@
         <v>792541</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,7 +4160,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B31" s="5">
         <v>7</v>
@@ -4175,10 +4172,10 @@
         <v>202894</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>216</v>
@@ -4277,13 +4274,13 @@
         <v>114464</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H33" s="7">
         <v>120</v>
@@ -4292,13 +4289,13 @@
         <v>127553</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M33" s="7">
         <v>225</v>
@@ -4307,13 +4304,13 @@
         <v>242017</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,13 +4325,13 @@
         <v>34664</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H34" s="7">
         <v>31</v>
@@ -4343,13 +4340,13 @@
         <v>32343</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="M34" s="7">
         <v>63</v>
@@ -4358,13 +4355,13 @@
         <v>67007</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,13 +4376,13 @@
         <v>59031</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>251</v>
+        <v>61</v>
       </c>
       <c r="H35" s="7">
         <v>61</v>
@@ -4394,13 +4391,13 @@
         <v>67184</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>184</v>
+        <v>249</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M35" s="7">
         <v>116</v>
@@ -4409,13 +4406,13 @@
         <v>126215</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,13 +4427,13 @@
         <v>76939</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H36" s="7">
         <v>69</v>
@@ -4445,13 +4442,13 @@
         <v>71545</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K36" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="L36" s="7" t="s">
-        <v>261</v>
+        <v>58</v>
       </c>
       <c r="M36" s="7">
         <v>137</v>
@@ -4460,13 +4457,13 @@
         <v>148484</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,13 +4478,13 @@
         <v>31925</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>265</v>
+        <v>110</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H37" s="7">
         <v>48</v>
@@ -4496,13 +4493,13 @@
         <v>51776</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>268</v>
+        <v>183</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M37" s="7">
         <v>76</v>
@@ -4511,13 +4508,13 @@
         <v>83701</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>182</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,13 +4529,13 @@
         <v>217206</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H38" s="7">
         <v>210</v>
@@ -4547,13 +4544,13 @@
         <v>227141</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M38" s="7">
         <v>412</v>
@@ -4562,13 +4559,13 @@
         <v>444348</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,7 +4621,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B40" s="5">
         <v>7</v>
@@ -4636,13 +4633,13 @@
         <v>352738</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H40" s="7">
         <v>336</v>
@@ -4651,13 +4648,13 @@
         <v>359656</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M40" s="7">
         <v>681</v>
@@ -4666,13 +4663,13 @@
         <v>712394</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,13 +4684,13 @@
         <v>47136</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>186</v>
+        <v>291</v>
       </c>
       <c r="H41" s="7">
         <v>44</v>
@@ -4702,13 +4699,13 @@
         <v>46940</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M41" s="7">
         <v>89</v>
@@ -4717,13 +4714,13 @@
         <v>94076</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>175</v>
+        <v>295</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>297</v>
+        <v>53</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +4735,13 @@
         <v>106089</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H42" s="7">
         <v>116</v>
@@ -4753,13 +4750,13 @@
         <v>127090</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M42" s="7">
         <v>226</v>
@@ -4768,13 +4765,13 @@
         <v>233179</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,13 +4786,13 @@
         <v>30238</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>242</v>
+        <v>306</v>
       </c>
       <c r="F43" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H43" s="7">
         <v>51</v>
@@ -4804,10 +4801,10 @@
         <v>55152</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>311</v>
@@ -4840,13 +4837,13 @@
         <v>62074</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H44" s="7">
         <v>84</v>
@@ -4855,13 +4852,13 @@
         <v>90892</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>320</v>
+        <v>251</v>
       </c>
       <c r="M44" s="7">
         <v>144</v>
@@ -4870,13 +4867,13 @@
         <v>152966</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,13 +4888,13 @@
         <v>39913</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H45" s="7">
         <v>53</v>
@@ -4906,13 +4903,13 @@
         <v>59199</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>328</v>
+        <v>107</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>193</v>
+        <v>324</v>
       </c>
       <c r="M45" s="7">
         <v>94</v>
@@ -4921,13 +4918,13 @@
         <v>99112</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>177</v>
+        <v>326</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,13 +4939,13 @@
         <v>11153</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H46" s="7">
         <v>20</v>
@@ -4957,13 +4954,13 @@
         <v>21839</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M46" s="7">
         <v>31</v>
@@ -4972,13 +4969,13 @@
         <v>32992</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,13 +4990,13 @@
         <v>288227</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H47" s="7">
         <v>255</v>
@@ -5008,13 +5005,13 @@
         <v>283012</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M47" s="7">
         <v>544</v>
@@ -5023,13 +5020,13 @@
         <v>571238</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5094,13 @@
         <v>1059174</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H49" s="7">
         <v>949</v>
@@ -5112,13 +5109,13 @@
         <v>993030</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M49" s="7">
         <v>1955</v>
@@ -5127,13 +5124,13 @@
         <v>2052204</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5145,13 @@
         <v>151676</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H50" s="7">
         <v>130</v>
@@ -5163,13 +5160,13 @@
         <v>136569</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>361</v>
+        <v>53</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>362</v>
+        <v>239</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M50" s="7">
         <v>270</v>
@@ -5178,13 +5175,13 @@
         <v>288245</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>366</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5196,13 @@
         <v>423789</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H51" s="7">
         <v>429</v>
@@ -5214,13 +5211,13 @@
         <v>453527</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>371</v>
+        <v>106</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="M51" s="7">
         <v>836</v>
@@ -5229,13 +5226,13 @@
         <v>877316</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5247,13 @@
         <v>128074</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>98</v>
+        <v>370</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H52" s="7">
         <v>175</v>
@@ -5265,13 +5262,13 @@
         <v>182543</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>162</v>
+        <v>372</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M52" s="7">
         <v>297</v>
@@ -5280,13 +5277,13 @@
         <v>310617</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>376</v>
+        <v>308</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>378</v>
+        <v>310</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,13 +5298,13 @@
         <v>222310</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>379</v>
+        <v>318</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>191</v>
+        <v>375</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H53" s="7">
         <v>269</v>
@@ -5316,13 +5313,13 @@
         <v>289288</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M53" s="7">
         <v>479</v>
@@ -5331,13 +5328,13 @@
         <v>511597</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>93</v>
+        <v>381</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>257</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,13 +5349,13 @@
         <v>230146</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H54" s="7">
         <v>231</v>
@@ -5370,10 +5367,10 @@
         <v>46</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>49</v>
+        <v>384</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>387</v>
+        <v>45</v>
       </c>
       <c r="M54" s="7">
         <v>447</v>
@@ -5382,13 +5379,13 @@
         <v>477291</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>159</v>
+        <v>386</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,13 +5400,13 @@
         <v>73863</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>391</v>
+        <v>68</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H55" s="7">
         <v>102</v>
@@ -5418,13 +5415,13 @@
         <v>107303</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>26</v>
+        <v>392</v>
       </c>
       <c r="M55" s="7">
         <v>170</v>
@@ -5433,13 +5430,13 @@
         <v>181166</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>20</v>
+        <v>393</v>
       </c>
       <c r="P55" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5451,13 @@
         <v>1105318</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H56" s="7">
         <v>1053</v>
@@ -5469,13 +5466,13 @@
         <v>1135138</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M56" s="7">
         <v>2115</v>
@@ -5484,13 +5481,13 @@
         <v>2240456</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>275</v>
+        <v>401</v>
       </c>
       <c r="P56" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,7 +5543,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -5567,7 +5564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA98BE-72C3-4924-89B6-677BC0326BF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF11F21-D41F-4C77-9D1C-0434F141E202}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5584,7 +5581,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5691,13 +5688,13 @@
         <v>37345</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="H4" s="7">
         <v>72</v>
@@ -5706,13 +5703,13 @@
         <v>31955</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M4" s="7">
         <v>121</v>
@@ -5721,13 +5718,13 @@
         <v>69299</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,13 +5739,13 @@
         <v>2545</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -5757,13 +5754,13 @@
         <v>4800</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -5772,13 +5769,13 @@
         <v>7345</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>362</v>
+        <v>97</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>422</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +5790,13 @@
         <v>11590</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H6" s="7">
         <v>43</v>
@@ -5808,13 +5805,13 @@
         <v>25021</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>427</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M6" s="7">
         <v>58</v>
@@ -5823,13 +5820,13 @@
         <v>36611</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5841,13 @@
         <v>633</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>432</v>
+        <v>329</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>228</v>
+        <v>97</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -5859,13 +5856,13 @@
         <v>6172</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -5874,13 +5871,13 @@
         <v>6805</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,13 +5892,13 @@
         <v>6203</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>96</v>
+        <v>434</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -5910,13 +5907,13 @@
         <v>17908</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M8" s="7">
         <v>38</v>
@@ -5925,13 +5922,13 @@
         <v>24111</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>444</v>
+        <v>165</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,13 +5943,13 @@
         <v>7974</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>447</v>
+        <v>137</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -5961,13 +5958,13 @@
         <v>5115</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>380</v>
+        <v>445</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -5976,13 +5973,13 @@
         <v>13089</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +5994,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -6012,13 +6009,13 @@
         <v>543</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -6027,13 +6024,13 @@
         <v>543</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6048,13 +6045,13 @@
         <v>32900</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>217</v>
+        <v>456</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H11" s="7">
         <v>64</v>
@@ -6063,13 +6060,13 @@
         <v>37666</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="M11" s="7">
         <v>101</v>
@@ -6078,13 +6075,13 @@
         <v>70566</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>461</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>14</v>
+        <v>462</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,13 +6149,13 @@
         <v>227040</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="H13" s="7">
         <v>383</v>
@@ -6167,13 +6164,13 @@
         <v>235083</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="M13" s="7">
         <v>650</v>
@@ -6182,13 +6179,13 @@
         <v>462123</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6203,13 +6200,13 @@
         <v>79210</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="H14" s="7">
         <v>106</v>
@@ -6218,13 +6215,13 @@
         <v>69578</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="M14" s="7">
         <v>188</v>
@@ -6233,13 +6230,13 @@
         <v>148788</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6254,13 +6251,13 @@
         <v>45333</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="H15" s="7">
         <v>106</v>
@@ -6269,13 +6266,13 @@
         <v>57049</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>486</v>
-      </c>
       <c r="L15" s="7" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="M15" s="7">
         <v>161</v>
@@ -6284,13 +6281,13 @@
         <v>102382</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6305,13 +6302,13 @@
         <v>16456</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>131</v>
+        <v>321</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -6320,13 +6317,13 @@
         <v>22709</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -6335,13 +6332,13 @@
         <v>39165</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>497</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6356,13 +6353,13 @@
         <v>19199</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>499</v>
+        <v>388</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>500</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -6371,13 +6368,13 @@
         <v>31811</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>67</v>
+        <v>496</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>501</v>
+        <v>241</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -6386,13 +6383,13 @@
         <v>51009</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>26</v>
+        <v>498</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>32</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6407,13 +6404,13 @@
         <v>10983</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>419</v>
+        <v>502</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
@@ -6422,13 +6419,13 @@
         <v>15446</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>505</v>
+        <v>203</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="M18" s="7">
         <v>41</v>
@@ -6437,13 +6434,13 @@
         <v>26429</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>339</v>
+        <v>505</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6458,13 +6455,13 @@
         <v>4072</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -6479,7 +6476,7 @@
         <v>512</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>513</v>
+        <v>196</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -6488,13 +6485,13 @@
         <v>10474</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6509,13 +6506,13 @@
         <v>143673</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="H20" s="7">
         <v>258</v>
@@ -6524,7 +6521,7 @@
         <v>149515</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>274</v>
+        <v>519</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>520</v>
@@ -6539,13 +6536,13 @@
         <v>293188</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,7 +6569,7 @@
         <v>987</v>
       </c>
       <c r="I21" s="7">
-        <v>587594</v>
+        <v>587593</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>80</v>
@@ -6613,13 +6610,13 @@
         <v>360706</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="H22" s="7">
         <v>566</v>
@@ -6628,13 +6625,13 @@
         <v>381003</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="M22" s="7">
         <v>939</v>
@@ -6643,13 +6640,13 @@
         <v>741710</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6664,13 +6661,13 @@
         <v>201868</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="H23" s="7">
         <v>193</v>
@@ -6679,13 +6676,13 @@
         <v>153878</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="M23" s="7">
         <v>332</v>
@@ -6694,13 +6691,13 @@
         <v>355746</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6715,13 +6712,13 @@
         <v>113846</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>545</v>
+        <v>368</v>
       </c>
       <c r="H24" s="7">
         <v>180</v>
@@ -6730,13 +6727,13 @@
         <v>114525</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M24" s="7">
         <v>290</v>
@@ -6745,13 +6742,13 @@
         <v>228371</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,13 +6763,13 @@
         <v>28207</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>553</v>
+        <v>450</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>43</v>
+        <v>550</v>
       </c>
       <c r="H25" s="7">
         <v>62</v>
@@ -6781,13 +6778,13 @@
         <v>43920</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>86</v>
@@ -6796,13 +6793,13 @@
         <v>72128</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>41</v>
+        <v>553</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>225</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6817,13 +6814,13 @@
         <v>64754</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="H26" s="7">
         <v>103</v>
@@ -6832,13 +6829,13 @@
         <v>72959</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>560</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="M26" s="7">
         <v>159</v>
@@ -6847,13 +6844,13 @@
         <v>137714</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>268</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>163</v>
+        <v>559</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,13 +6865,13 @@
         <v>37798</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>563</v>
+        <v>502</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>394</v>
+        <v>561</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H27" s="7">
         <v>66</v>
@@ -6883,13 +6880,13 @@
         <v>49779</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>567</v>
+        <v>264</v>
       </c>
       <c r="M27" s="7">
         <v>101</v>
@@ -6898,13 +6895,13 @@
         <v>87577</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>265</v>
+        <v>110</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>247</v>
+        <v>565</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6919,13 +6916,13 @@
         <v>7060</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>571</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -6934,13 +6931,13 @@
         <v>14521</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -6949,13 +6946,13 @@
         <v>21581</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6970,13 +6967,13 @@
         <v>218087</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>578</v>
       </c>
       <c r="H29" s="7">
         <v>319</v>
@@ -6985,13 +6982,13 @@
         <v>224579</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>581</v>
       </c>
       <c r="M29" s="7">
         <v>533</v>
@@ -7000,13 +6997,13 @@
         <v>442666</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>583</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>584</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7062,7 +7059,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B31" s="5">
         <v>7</v>
@@ -7074,13 +7071,13 @@
         <v>295405</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>586</v>
       </c>
       <c r="H31" s="7">
         <v>386</v>
@@ -7089,10 +7086,10 @@
         <v>379248</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>588</v>
@@ -7125,13 +7122,13 @@
         <v>55321</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>593</v>
       </c>
       <c r="H32" s="7">
         <v>73</v>
@@ -7140,13 +7137,13 @@
         <v>59080</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>596</v>
       </c>
       <c r="M32" s="7">
         <v>125</v>
@@ -7155,13 +7152,13 @@
         <v>114401</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,10 +7206,10 @@
         <v>605</v>
       </c>
       <c r="P33" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7227,13 +7224,13 @@
         <v>50498</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>608</v>
+        <v>121</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
       <c r="H34" s="7">
         <v>47</v>
@@ -7242,13 +7239,13 @@
         <v>34190</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>610</v>
+        <v>310</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>611</v>
+        <v>229</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>612</v>
+        <v>446</v>
       </c>
       <c r="M34" s="7">
         <v>89</v>
@@ -7257,13 +7254,13 @@
         <v>84688</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>613</v>
+        <v>163</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>614</v>
+        <v>359</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7278,13 +7275,13 @@
         <v>41904</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>616</v>
+        <v>296</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="H35" s="7">
         <v>93</v>
@@ -7293,13 +7290,13 @@
         <v>71822</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>619</v>
+        <v>558</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>620</v>
+        <v>174</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>549</v>
+        <v>611</v>
       </c>
       <c r="M35" s="7">
         <v>131</v>
@@ -7308,13 +7305,13 @@
         <v>113726</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7329,13 +7326,13 @@
         <v>24950</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>313</v>
+        <v>615</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>390</v>
+        <v>226</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>623</v>
+        <v>433</v>
       </c>
       <c r="H36" s="7">
         <v>52</v>
@@ -7344,13 +7341,13 @@
         <v>35768</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>111</v>
+        <v>616</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>416</v>
+        <v>617</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>624</v>
+        <v>98</v>
       </c>
       <c r="M36" s="7">
         <v>74</v>
@@ -7359,13 +7356,13 @@
         <v>60718</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>451</v>
+        <v>618</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>123</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7380,13 +7377,13 @@
         <v>14863</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>511</v>
+        <v>620</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>626</v>
+        <v>564</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -7395,13 +7392,13 @@
         <v>14517</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>627</v>
+        <v>513</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="M37" s="7">
         <v>33</v>
@@ -7410,13 +7407,13 @@
         <v>29380</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>630</v>
+        <v>227</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7431,13 +7428,13 @@
         <v>119098</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="H38" s="7">
         <v>207</v>
@@ -7446,13 +7443,13 @@
         <v>158813</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>149</v>
+        <v>629</v>
       </c>
       <c r="M38" s="7">
         <v>322</v>
@@ -7461,13 +7458,13 @@
         <v>277911</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7523,7 +7520,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B40" s="5">
         <v>7</v>
@@ -7535,13 +7532,13 @@
         <v>469153</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="H40" s="7">
         <v>655</v>
@@ -7550,13 +7547,13 @@
         <v>468239</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="M40" s="7">
         <v>1151</v>
@@ -7565,13 +7562,13 @@
         <v>937392</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7586,13 +7583,13 @@
         <v>123691</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>648</v>
+        <v>600</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>168</v>
+        <v>642</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>169</v>
+        <v>643</v>
       </c>
       <c r="H41" s="7">
         <v>145</v>
@@ -7601,13 +7598,13 @@
         <v>109579</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>255</v>
+        <v>644</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>486</v>
+        <v>645</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>649</v>
+        <v>420</v>
       </c>
       <c r="M41" s="7">
         <v>273</v>
@@ -7616,13 +7613,13 @@
         <v>233270</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7637,13 +7634,13 @@
         <v>112684</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>262</v>
+        <v>650</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>654</v>
+        <v>473</v>
       </c>
       <c r="H42" s="7">
         <v>223</v>
@@ -7652,13 +7649,13 @@
         <v>171616</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>232</v>
+        <v>57</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="M42" s="7">
         <v>334</v>
@@ -7667,13 +7664,13 @@
         <v>284300</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>659</v>
+        <v>480</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7688,13 +7685,13 @@
         <v>21039</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>662</v>
+        <v>507</v>
       </c>
       <c r="H43" s="7">
         <v>57</v>
@@ -7703,13 +7700,13 @@
         <v>40219</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>663</v>
+        <v>231</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>628</v>
+        <v>656</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>664</v>
+        <v>358</v>
       </c>
       <c r="M43" s="7">
         <v>79</v>
@@ -7718,13 +7715,13 @@
         <v>61258</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>665</v>
+        <v>160</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>339</v>
+        <v>657</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>365</v>
+        <v>502</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7739,13 +7736,13 @@
         <v>45054</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>313</v>
+        <v>659</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>129</v>
+        <v>660</v>
       </c>
       <c r="H44" s="7">
         <v>101</v>
@@ -7754,13 +7751,13 @@
         <v>71847</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>159</v>
+        <v>661</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>667</v>
+        <v>122</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>387</v>
+        <v>662</v>
       </c>
       <c r="M44" s="7">
         <v>150</v>
@@ -7769,13 +7766,13 @@
         <v>116901</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>565</v>
+        <v>664</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>315</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7790,13 +7787,13 @@
         <v>27616</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>201</v>
+        <v>665</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="H45" s="7">
         <v>49</v>
@@ -7805,13 +7802,13 @@
         <v>49337</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="M45" s="7">
         <v>77</v>
@@ -7820,13 +7817,13 @@
         <v>76953</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7841,13 +7838,13 @@
         <v>10638</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>338</v>
+        <v>671</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>432</v>
+        <v>672</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H46" s="7">
         <v>34</v>
@@ -7856,13 +7853,13 @@
         <v>25147</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="M46" s="7">
         <v>47</v>
@@ -7871,13 +7868,13 @@
         <v>35785</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>678</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7892,13 +7889,13 @@
         <v>143097</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>680</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H47" s="7">
         <v>282</v>
@@ -7907,13 +7904,13 @@
         <v>202925</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>683</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>684</v>
       </c>
       <c r="M47" s="7">
         <v>431</v>
@@ -7922,13 +7919,13 @@
         <v>346022</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>686</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7996,13 +7993,13 @@
         <v>1389649</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>689</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>690</v>
       </c>
       <c r="H49" s="7">
         <v>2062</v>
@@ -8011,13 +8008,13 @@
         <v>1495528</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>692</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>693</v>
       </c>
       <c r="M49" s="7">
         <v>3531</v>
@@ -8026,10 +8023,10 @@
         <v>2885177</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>694</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="Q49" s="7" t="s">
         <v>695</v>
@@ -8050,10 +8047,10 @@
         <v>696</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>42</v>
+        <v>697</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H50" s="7">
         <v>526</v>
@@ -8062,13 +8059,13 @@
         <v>396916</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M50" s="7">
         <v>931</v>
@@ -8077,13 +8074,13 @@
         <v>859550</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>703</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8131,10 +8128,10 @@
         <v>710</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>481</v>
+        <v>297</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>480</v>
+        <v>711</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -8149,10 +8146,10 @@
         <v>116833</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>712</v>
+        <v>447</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>713</v>
@@ -8164,13 +8161,13 @@
         <v>147211</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="L52" s="7" t="s">
         <v>715</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>716</v>
       </c>
       <c r="M52" s="7">
         <v>322</v>
@@ -8179,13 +8176,13 @@
         <v>264044</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="P52" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="P52" s="7" t="s">
-        <v>718</v>
-      </c>
       <c r="Q52" s="7" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8200,13 +8197,13 @@
         <v>177114</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>183</v>
+        <v>718</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>719</v>
+        <v>194</v>
       </c>
       <c r="H53" s="7">
         <v>383</v>
@@ -8215,13 +8212,13 @@
         <v>266348</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="L53" s="7" t="s">
         <v>721</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>722</v>
       </c>
       <c r="M53" s="7">
         <v>557</v>
@@ -8230,13 +8227,13 @@
         <v>443461</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>723</v>
+        <v>670</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>194</v>
+        <v>490</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>615</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8251,13 +8248,13 @@
         <v>109321</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>725</v>
+        <v>669</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>610</v>
+        <v>722</v>
       </c>
       <c r="H54" s="7">
         <v>205</v>
@@ -8266,13 +8263,13 @@
         <v>155445</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>194</v>
+        <v>724</v>
       </c>
       <c r="M54" s="7">
         <v>307</v>
@@ -8281,13 +8278,13 @@
         <v>264766</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>294</v>
+        <v>725</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8305,10 +8302,10 @@
         <v>511</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>727</v>
+        <v>508</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H55" s="7">
         <v>86</v>
@@ -8317,13 +8314,13 @@
         <v>61131</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>731</v>
+        <v>619</v>
       </c>
       <c r="M55" s="7">
         <v>125</v>
@@ -8332,13 +8329,13 @@
         <v>97764</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>458</v>
+        <v>729</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>732</v>
+        <v>335</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>337</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8353,13 +8350,13 @@
         <v>656856</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>78</v>
+        <v>731</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>579</v>
+        <v>732</v>
       </c>
       <c r="H56" s="7">
         <v>1130</v>
@@ -8368,13 +8365,13 @@
         <v>773497</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>735</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>736</v>
       </c>
       <c r="M56" s="7">
         <v>1789</v>
@@ -8383,13 +8380,13 @@
         <v>1430353</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>737</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>738</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8445,7 +8442,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
